--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.52854197839549</v>
+        <v>109.3723396666667</v>
       </c>
       <c r="H2">
-        <v>93.52854197839549</v>
+        <v>328.117019</v>
       </c>
       <c r="I2">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="J2">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N2">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q2">
-        <v>69.13616027987713</v>
+        <v>150.7670723794549</v>
       </c>
       <c r="R2">
-        <v>69.13616027987713</v>
+        <v>1356.903651415094</v>
       </c>
       <c r="S2">
-        <v>0.008921392536492729</v>
+        <v>0.01686417733856591</v>
       </c>
       <c r="T2">
-        <v>0.008921392536492729</v>
+        <v>0.01686417733856591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.52854197839549</v>
+        <v>109.3723396666667</v>
       </c>
       <c r="H3">
-        <v>93.52854197839549</v>
+        <v>328.117019</v>
       </c>
       <c r="I3">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="J3">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N3">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q3">
-        <v>1229.673846860351</v>
+        <v>1439.532631160933</v>
       </c>
       <c r="R3">
-        <v>1229.673846860351</v>
+        <v>12955.7936804484</v>
       </c>
       <c r="S3">
-        <v>0.1586782233102017</v>
+        <v>0.1610201298825415</v>
       </c>
       <c r="T3">
-        <v>0.1586782233102017</v>
+        <v>0.1610201298825415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.52854197839549</v>
+        <v>109.3723396666667</v>
       </c>
       <c r="H4">
-        <v>93.52854197839549</v>
+        <v>328.117019</v>
       </c>
       <c r="I4">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="J4">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N4">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q4">
-        <v>66.94408050424562</v>
+        <v>90.67995058359534</v>
       </c>
       <c r="R4">
-        <v>66.94408050424562</v>
+        <v>816.1195552523581</v>
       </c>
       <c r="S4">
-        <v>0.008638524583303725</v>
+        <v>0.01014308193134707</v>
       </c>
       <c r="T4">
-        <v>0.008638524583303725</v>
+        <v>0.01014308193134707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.52854197839549</v>
+        <v>109.3723396666667</v>
       </c>
       <c r="H5">
-        <v>93.52854197839549</v>
+        <v>328.117019</v>
       </c>
       <c r="I5">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="J5">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N5">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q5">
-        <v>797.8967832764038</v>
+        <v>1006.626702675231</v>
       </c>
       <c r="R5">
-        <v>797.8967832764038</v>
+        <v>9059.640324077078</v>
       </c>
       <c r="S5">
-        <v>0.1029613212304118</v>
+        <v>0.1125970741471018</v>
       </c>
       <c r="T5">
-        <v>0.1029613212304118</v>
+        <v>0.1125970741471018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>170.517678315754</v>
+        <v>170.751104</v>
       </c>
       <c r="H6">
-        <v>170.517678315754</v>
+        <v>512.2533120000001</v>
       </c>
       <c r="I6">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="J6">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N6">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q6">
-        <v>126.0464163048075</v>
+        <v>235.3761850034347</v>
       </c>
       <c r="R6">
-        <v>126.0464163048075</v>
+        <v>2118.385665030912</v>
       </c>
       <c r="S6">
-        <v>0.01626514335076063</v>
+        <v>0.0263282005979572</v>
       </c>
       <c r="T6">
-        <v>0.01626514335076063</v>
+        <v>0.0263282005979572</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>170.517678315754</v>
+        <v>170.751104</v>
       </c>
       <c r="H7">
-        <v>170.517678315754</v>
+        <v>512.2533120000001</v>
       </c>
       <c r="I7">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="J7">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N7">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q7">
-        <v>2241.894559851732</v>
+        <v>2247.385278251179</v>
       </c>
       <c r="R7">
-        <v>2241.894559851732</v>
+        <v>20226.46750426061</v>
       </c>
       <c r="S7">
-        <v>0.2892960979160186</v>
+        <v>0.2513831653182308</v>
       </c>
       <c r="T7">
-        <v>0.2892960979160186</v>
+        <v>0.2513831653182308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>170.517678315754</v>
+        <v>170.751104</v>
       </c>
       <c r="H8">
-        <v>170.517678315754</v>
+        <v>512.2533120000001</v>
       </c>
       <c r="I8">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="J8">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N8">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q8">
-        <v>122.0498998819389</v>
+        <v>141.568715819776</v>
       </c>
       <c r="R8">
-        <v>122.0498998819389</v>
+        <v>1274.118442377984</v>
       </c>
       <c r="S8">
-        <v>0.01574942926362282</v>
+        <v>0.01583528745035897</v>
       </c>
       <c r="T8">
-        <v>0.01574942926362282</v>
+        <v>0.01583528745035896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>170.517678315754</v>
+        <v>170.751104</v>
       </c>
       <c r="H9">
-        <v>170.517678315754</v>
+        <v>512.2533120000001</v>
       </c>
       <c r="I9">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="J9">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N9">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q9">
-        <v>1454.695049681505</v>
+        <v>1571.536471849472</v>
       </c>
       <c r="R9">
-        <v>1454.695049681505</v>
+        <v>14143.82824664525</v>
       </c>
       <c r="S9">
-        <v>0.1877151624643936</v>
+        <v>0.1757855302024504</v>
       </c>
       <c r="T9">
-        <v>0.1877151624643936</v>
+        <v>0.1757855302024504</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.6177707677397</v>
+        <v>68.96861966666667</v>
       </c>
       <c r="H10">
-        <v>60.6177707677397</v>
+        <v>206.905859</v>
       </c>
       <c r="I10">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="J10">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N10">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q10">
-        <v>44.80856674292399</v>
+        <v>95.07154098454822</v>
       </c>
       <c r="R10">
-        <v>44.80856674292399</v>
+        <v>855.643868860934</v>
       </c>
       <c r="S10">
-        <v>0.005782137904288729</v>
+        <v>0.01063430695914104</v>
       </c>
       <c r="T10">
-        <v>0.005782137904288729</v>
+        <v>0.01063430695914104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.6177707677397</v>
+        <v>68.96861966666667</v>
       </c>
       <c r="H11">
-        <v>60.6177707677397</v>
+        <v>206.905859</v>
       </c>
       <c r="I11">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="J11">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N11">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q11">
-        <v>796.9768991511033</v>
+        <v>907.7485115421063</v>
       </c>
       <c r="R11">
-        <v>796.9768991511033</v>
+        <v>8169.736603878957</v>
       </c>
       <c r="S11">
-        <v>0.1028426185524402</v>
+        <v>0.1015369711427216</v>
       </c>
       <c r="T11">
-        <v>0.1028426185524402</v>
+        <v>0.1015369711427216</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.6177707677397</v>
+        <v>68.96861966666667</v>
       </c>
       <c r="H12">
-        <v>60.6177707677397</v>
+        <v>206.905859</v>
       </c>
       <c r="I12">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="J12">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N12">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q12">
-        <v>43.38783477669144</v>
+        <v>57.18146875391533</v>
       </c>
       <c r="R12">
-        <v>43.38783477669144</v>
+        <v>514.633218785238</v>
       </c>
       <c r="S12">
-        <v>0.005598805368773403</v>
+        <v>0.006396081149063301</v>
       </c>
       <c r="T12">
-        <v>0.005598805368773403</v>
+        <v>0.0063960811490633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.6177707677397</v>
+        <v>68.96861966666667</v>
       </c>
       <c r="H13">
-        <v>60.6177707677397</v>
+        <v>206.905859</v>
       </c>
       <c r="I13">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="J13">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N13">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q13">
-        <v>517.1333079921029</v>
+        <v>634.7642778302708</v>
       </c>
       <c r="R13">
-        <v>517.1333079921029</v>
+        <v>5712.878500472437</v>
       </c>
       <c r="S13">
-        <v>0.06673134891518366</v>
+        <v>0.07100209071231627</v>
       </c>
       <c r="T13">
-        <v>0.06673134891518366</v>
+        <v>0.07100209071231625</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.3242693816577</v>
+        <v>14.72510066666667</v>
       </c>
       <c r="H14">
-        <v>10.3242693816577</v>
+        <v>44.175302</v>
       </c>
       <c r="I14">
-        <v>0.03081979460410844</v>
+        <v>0.0404739031682042</v>
       </c>
       <c r="J14">
-        <v>0.03081979460410844</v>
+        <v>0.04047390316820419</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N14">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O14">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P14">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q14">
-        <v>7.631684699070724</v>
+        <v>20.29818804985022</v>
       </c>
       <c r="R14">
-        <v>7.631684699070724</v>
+        <v>182.683692448652</v>
       </c>
       <c r="S14">
-        <v>0.0009847994832159097</v>
+        <v>0.00227047084964741</v>
       </c>
       <c r="T14">
-        <v>0.0009847994832159097</v>
+        <v>0.002270470849647409</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.3242693816577</v>
+        <v>14.72510066666667</v>
       </c>
       <c r="H15">
-        <v>10.3242693816577</v>
+        <v>44.175302</v>
       </c>
       <c r="I15">
-        <v>0.03081979460410844</v>
+        <v>0.0404739031682042</v>
       </c>
       <c r="J15">
-        <v>0.03081979460410844</v>
+        <v>0.04047390316820419</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N15">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P15">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q15">
-        <v>135.7391420631591</v>
+        <v>193.8082605839742</v>
       </c>
       <c r="R15">
-        <v>135.7391420631591</v>
+        <v>1744.274345255768</v>
       </c>
       <c r="S15">
-        <v>0.01751590143290998</v>
+        <v>0.02167858554645865</v>
       </c>
       <c r="T15">
-        <v>0.01751590143290998</v>
+        <v>0.02167858554645864</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.3242693816577</v>
+        <v>14.72510066666667</v>
       </c>
       <c r="H16">
-        <v>10.3242693816577</v>
+        <v>44.175302</v>
       </c>
       <c r="I16">
-        <v>0.03081979460410844</v>
+        <v>0.0404739031682042</v>
       </c>
       <c r="J16">
-        <v>0.03081979460410844</v>
+        <v>0.04047390316820419</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N16">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O16">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P16">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q16">
-        <v>7.389709130640165</v>
+        <v>12.20849261212933</v>
       </c>
       <c r="R16">
-        <v>7.389709130640165</v>
+        <v>109.876433509164</v>
       </c>
       <c r="S16">
-        <v>0.0009535747374176057</v>
+        <v>0.001365591181138947</v>
       </c>
       <c r="T16">
-        <v>0.0009535747374176057</v>
+        <v>0.001365591181138946</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.3242693816577</v>
+        <v>14.72510066666667</v>
       </c>
       <c r="H17">
-        <v>10.3242693816577</v>
+        <v>44.175302</v>
       </c>
       <c r="I17">
-        <v>0.03081979460410844</v>
+        <v>0.0404739031682042</v>
       </c>
       <c r="J17">
-        <v>0.03081979460410844</v>
+        <v>0.04047390316820419</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N17">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O17">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P17">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q17">
-        <v>88.07687102838193</v>
+        <v>135.5249378025787</v>
       </c>
       <c r="R17">
-        <v>88.07687102838193</v>
+        <v>1219.724440223208</v>
       </c>
       <c r="S17">
-        <v>0.01136551895056495</v>
+        <v>0.0151592555909592</v>
       </c>
       <c r="T17">
-        <v>0.01136551895056495</v>
+        <v>0.01515925559095919</v>
       </c>
     </row>
   </sheetData>
